--- a/Correlacao_de_fundos/Bases/Book8.xlsx
+++ b/Correlacao_de_fundos/Bases/Book8.xlsx
@@ -12884,8 +12884,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="59b1383659f2165d583401089bbb2cdd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76bf99ca48259c387bedcb1bc0ef443" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
     <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -12971,8 +12971,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13077,7 +13077,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64783FE9-04AD-46E7-B34A-033564FBA86B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4EC42-FCBA-4F05-B2C4-ECCA4F0A38DB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
